--- a/生产线打印机和扫描仪.xlsx
+++ b/生产线打印机和扫描仪.xlsx
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>斑马105Sl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纸45*55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,10 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Zebra 105SL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>打印机是并口连接,打印纸50X30MM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,6 +192,14 @@
   </si>
   <si>
     <t>扫描枪为USB接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马（Zebra）105Sl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斑马（Zebra） 105SL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -713,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -732,30 +732,30 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -763,64 +763,64 @@
     </row>
     <row r="6" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" t="s">
         <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/生产线打印机和扫描仪.xlsx
+++ b/生产线打印机和扫描仪.xlsx
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>易腾迈PD41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>村村通使用打印纸规格为：条形码标贴55*45
 户户通使用打印纸规格为：条形码标贴55*30 ，都为单联
 USB接口</t>
@@ -94,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>立像的打印机OS-214 plus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>标签纸规格：
 52x22  不带智能卡号，单位mm
 52x30   带智能卡号，单位mm</t>
@@ -134,10 +126,6 @@
   </si>
   <si>
     <t>TCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>博思德g3106</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -200,6 +188,18 @@
   </si>
   <si>
     <t>斑马（Zebra） 105SL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立像的打印机OS-214 plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博思德g3106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易腾迈（Intermec）PD41</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -693,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -701,126 +701,126 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="123.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
